--- a/gene_expression/Acervicornis/results_csv/PERMANOVA_results_GenotypeTreatment.xlsx
+++ b/gene_expression/Acervicornis/results_csv/PERMANOVA_results_GenotypeTreatment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/Acervicornis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch1_temperaturevariability2023/gene_expression/Acervicornis/results_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683E61C4-781B-3B41-AE50-68DEFFFEE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{683E61C4-781B-3B41-AE50-68DEFFFEE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2C3D7A-2016-9D47-81A6-E7FD0704098E}"/>
   <bookViews>
-    <workbookView xWindow="-19540" yWindow="2140" windowWidth="17260" windowHeight="17180" xr2:uid="{98897AB4-0EAA-7C45-8213-784F27541291}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{98897AB4-0EAA-7C45-8213-784F27541291}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,9 +129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +169,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,10 +428,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -458,13 +466,13 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>475009451</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.18218000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>5.5868000000000002</v>
       </c>
       <c r="F4" s="1">
@@ -481,13 +489,13 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>474467573</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.18196999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.5804</v>
       </c>
       <c r="F5" s="1">
@@ -504,12 +512,14 @@
       <c r="B6">
         <v>39</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1657956028</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.63585999999999998</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -518,14 +528,17 @@
       <c r="B7">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2607433051</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>